--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,43 +522,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.04473212595073</v>
+        <v>0.1295</v>
       </c>
       <c r="H2">
-        <v>1.04473212595073</v>
+        <v>0.3885</v>
       </c>
       <c r="I2">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
       <c r="J2">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.378458038496915</v>
+        <v>0.4118343333333334</v>
       </c>
       <c r="N2">
-        <v>0.378458038496915</v>
+        <v>1.235503</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3953872711420253</v>
+        <v>0.05333254616666667</v>
       </c>
       <c r="R2">
-        <v>0.3953872711420253</v>
+        <v>0.4799929155</v>
       </c>
       <c r="S2">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
       <c r="T2">
-        <v>0.3318645826686523</v>
+        <v>0.03378978388280364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,185 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.300224333333333</v>
+      </c>
+      <c r="H3">
+        <v>3.900673</v>
+      </c>
+      <c r="I3">
+        <v>0.3392609978571102</v>
+      </c>
+      <c r="J3">
+        <v>0.3392609978571102</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.4118343333333334</v>
+      </c>
+      <c r="N3">
+        <v>1.235503</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.5354770215021111</v>
+      </c>
+      <c r="R3">
+        <v>4.819293193519</v>
+      </c>
+      <c r="S3">
+        <v>0.3392609978571102</v>
+      </c>
+      <c r="T3">
+        <v>0.3392609978571102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1462553333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.438766</v>
+      </c>
+      <c r="I4">
+        <v>0.03816166876479336</v>
+      </c>
+      <c r="J4">
+        <v>0.03816166876479336</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.4118343333333334</v>
+      </c>
+      <c r="N4">
+        <v>1.235503</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.06023296769977778</v>
+      </c>
+      <c r="R4">
+        <v>0.542096709298</v>
+      </c>
+      <c r="S4">
+        <v>0.03816166876479336</v>
+      </c>
+      <c r="T4">
+        <v>0.03816166876479336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.103335430851</v>
-      </c>
-      <c r="H3">
-        <v>2.103335430851</v>
-      </c>
-      <c r="I3">
-        <v>0.6681354173313477</v>
-      </c>
-      <c r="J3">
-        <v>0.6681354173313477</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.378458038496915</v>
-      </c>
-      <c r="N3">
-        <v>0.378458038496915</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.7960242014609331</v>
-      </c>
-      <c r="R3">
-        <v>0.7960242014609331</v>
-      </c>
-      <c r="S3">
-        <v>0.6681354173313477</v>
-      </c>
-      <c r="T3">
-        <v>0.6681354173313477</v>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.256539666666666</v>
+      </c>
+      <c r="H5">
+        <v>6.769619</v>
+      </c>
+      <c r="I5">
+        <v>0.5887875494952928</v>
+      </c>
+      <c r="J5">
+        <v>0.5887875494952928</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4118343333333334</v>
+      </c>
+      <c r="N5">
+        <v>1.235503</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.9293205092618888</v>
+      </c>
+      <c r="R5">
+        <v>8.363884583356999</v>
+      </c>
+      <c r="S5">
+        <v>0.5887875494952928</v>
+      </c>
+      <c r="T5">
+        <v>0.5887875494952928</v>
       </c>
     </row>
   </sheetData>
